--- a/team_specific_matrix/Brescia_A.xlsx
+++ b/team_specific_matrix/Brescia_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2857142857142857</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C2">
-        <v>0.3809523809523809</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1904761904761905</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.375</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.5</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09090909090909091</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1818181818181818</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3636363636363636</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09090909090909091</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="S6">
-        <v>0.2727272727272727</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09090909090909091</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09090909090909091</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09090909090909091</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.09090909090909091</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.6363636363636364</v>
+        <v>0.6285714285714286</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05555555555555555</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.08333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="R8">
-        <v>0.02777777777777778</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="S8">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.16</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.08</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="R9">
-        <v>0.04</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="S9">
-        <v>0.68</v>
+        <v>0.6486486486486487</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1052631578947368</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.02105263157894737</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1263157894736842</v>
+        <v>0.1243523316062176</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2842105263157895</v>
+        <v>0.2642487046632124</v>
       </c>
       <c r="R10">
-        <v>0.02105263157894737</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="S10">
-        <v>0.4421052631578947</v>
+        <v>0.4455958549222798</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1578947368421053</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1052631578947368</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K11">
-        <v>0.2105263157894737</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L11">
-        <v>0.5263157894736842</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,22 +1283,22 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.25</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K15">
-        <v>0.0625</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0625</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1345,13 +1345,13 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="I16">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K16">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.025</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.15</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="I17">
-        <v>0.2</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="J17">
-        <v>0.275</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="K17">
-        <v>0.1</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.15</v>
+        <v>0.0963855421686747</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01626016260162602</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2195121951219512</v>
+        <v>0.219409282700422</v>
       </c>
       <c r="I19">
-        <v>0.1138211382113821</v>
+        <v>0.08438818565400844</v>
       </c>
       <c r="J19">
-        <v>0.3821138211382114</v>
+        <v>0.3713080168776371</v>
       </c>
       <c r="K19">
-        <v>0.07317073170731707</v>
+        <v>0.1054852320675106</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01626016260162602</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.04878048780487805</v>
+        <v>0.05485232067510549</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1300813008130081</v>
+        <v>0.1181434599156118</v>
       </c>
     </row>
   </sheetData>
